--- a/biology/Botanique/Acleisanthes_longiflora/Acleisanthes_longiflora.xlsx
+++ b/biology/Botanique/Acleisanthes_longiflora/Acleisanthes_longiflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acleisanthes longiflora est une espèce de plantes à fleurs de la famille des Nyctaginaceae, originaire du Mexique et du sud des États-Unis.
 </t>
@@ -513,11 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce buisson bas a des tiges très ramifiées qui courent sur le sol ou s'appuient sur d'autres buissons ou supports pour s'y accrocher. Les tiges florales peuvent s'élever jusqu'à 20 cm au-dessus du sol, et les tiges rampantes peuvent atteindre 90 cm de longueur. Les feuilles opposées, de forme triangulaire, mesurent en moyenne 2,5 cm de long[1].
-Appareil reproducteur
-Les fleurs poussent à l'aisselle des feuilles entre mai et septembre. Elles s'ouvrent à la faveur de la fraîcheur nocturne. En forme de trompette à long tube, elles ont un port érigé et sont de couleur blanche. Chaque fleur mesure de 8,8 à 16,3 cm de longueur, pour 1,3 à 2 cm de largeur[1].
-Les fruits, de 6 mm de longueur, présentent 5 angles aux contours arrondis.
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce buisson bas a des tiges très ramifiées qui courent sur le sol ou s'appuient sur d'autres buissons ou supports pour s'y accrocher. Les tiges florales peuvent s'élever jusqu'à 20 cm au-dessus du sol, et les tiges rampantes peuvent atteindre 90 cm de longueur. Les feuilles opposées, de forme triangulaire, mesurent en moyenne 2,5 cm de long.
 </t>
         </is>
       </c>
@@ -543,13 +557,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition et habitat</t>
+          <t>Description morphologique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette plante pousse sur les pentes rocailleuses des déserts et plaines arides du Mexique et du sud-ouest des États-Unis.
-Son aire de répartition s'étend, au nord, du sud-est de la Californie au Texas et au Nouveau-Mexique, et au sud jusqu'au Mexique.
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs poussent à l'aisselle des feuilles entre mai et septembre. Elles s'ouvrent à la faveur de la fraîcheur nocturne. En forme de trompette à long tube, elles ont un port érigé et sont de couleur blanche. Chaque fleur mesure de 8,8 à 16,3 cm de longueur, pour 1,3 à 2 cm de largeur.
+Les fruits, de 6 mm de longueur, présentent 5 angles aux contours arrondis.
 </t>
         </is>
       </c>
@@ -575,10 +595,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante pousse sur les pentes rocailleuses des déserts et plaines arides du Mexique et du sud-ouest des États-Unis.
+Son aire de répartition s'étend, au nord, du sud-est de la Californie au Texas et au Nouveau-Mexique, et au sud jusqu'au Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Acleisanthes_longiflora</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Acleisanthes_longiflora</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Rôle écologique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fleurs, qui s'ouvrent la nuit, attirent des papillons de nuit qui consomment son nectar, et réalisent en retour la pollinisation.
 </t>
